--- a/Datasets/3.5.21_emi_interpolation_seqs.xlsx
+++ b/Datasets/3.5.21_emi_interpolation_seqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makow\Documents\GitHub\UniRep\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74283652-BCE6-4BE8-8516-233F373398CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1FC374-45B9-4154-9DD5-C8BAA960A769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC3618BE-4FCD-4A35-9C98-6B93618C9CAA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="164">
   <si>
     <t>R</t>
   </si>
@@ -476,6 +476,57 @@
   </si>
   <si>
     <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTDYYMHWVRQAPGQGLEWMGRVNPNKGDTTYNQKFEGRVTMTTDTSTSTAYMELRSLRSDDTAVYYCARSNLLDDWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>JHpR200</t>
+  </si>
+  <si>
+    <t>JHpR201</t>
+  </si>
+  <si>
+    <t>JHpR202</t>
+  </si>
+  <si>
+    <t>JHpR203</t>
+  </si>
+  <si>
+    <t>JHpR204</t>
+  </si>
+  <si>
+    <t>JHpR205</t>
+  </si>
+  <si>
+    <t>JHpR206</t>
+  </si>
+  <si>
+    <t>JHpR207</t>
+  </si>
+  <si>
+    <t>JHpR208</t>
+  </si>
+  <si>
+    <t>JHpR209</t>
+  </si>
+  <si>
+    <t>JHpR210</t>
+  </si>
+  <si>
+    <t>JHpR211</t>
+  </si>
+  <si>
+    <t>JHpR212</t>
+  </si>
+  <si>
+    <t>JHpR213</t>
+  </si>
+  <si>
+    <t>JHpR214</t>
+  </si>
+  <si>
+    <t>JHpR215</t>
+  </si>
+  <si>
+    <t>JHpR216</t>
   </si>
 </sst>
 </file>
@@ -582,7 +633,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$P$2</c:f>
+              <c:f>Sheet2!$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -594,7 +645,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$2</c:f>
+              <c:f>Sheet2!$R$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -641,7 +692,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$P$3</c:f>
+              <c:f>Sheet2!$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -653,7 +704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$3</c:f>
+              <c:f>Sheet2!$R$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -700,7 +751,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$P$4</c:f>
+              <c:f>Sheet2!$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -712,7 +763,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$4</c:f>
+              <c:f>Sheet2!$R$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -759,7 +810,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$P$5</c:f>
+              <c:f>Sheet2!$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -771,7 +822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$5</c:f>
+              <c:f>Sheet2!$R$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -818,7 +869,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$P$6</c:f>
+              <c:f>Sheet2!$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -830,7 +881,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$6</c:f>
+              <c:f>Sheet2!$R$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -852,7 +903,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$7</c:f>
+              <c:f>Sheet2!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -885,7 +936,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$P$7</c:f>
+              <c:f>Sheet2!$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -897,7 +948,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$7</c:f>
+              <c:f>Sheet2!$R$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -919,7 +970,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$8</c:f>
+              <c:f>Sheet2!$P$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -952,7 +1003,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$P$8</c:f>
+              <c:f>Sheet2!$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -964,7 +1015,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$8</c:f>
+              <c:f>Sheet2!$R$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -986,7 +1037,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$9</c:f>
+              <c:f>Sheet2!$P$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1019,7 +1070,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$P$9</c:f>
+              <c:f>Sheet2!$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1031,7 +1082,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$9</c:f>
+              <c:f>Sheet2!$R$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1053,7 +1104,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$10</c:f>
+              <c:f>Sheet2!$P$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1086,7 +1137,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$P$10</c:f>
+              <c:f>Sheet2!$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1098,7 +1149,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$10</c:f>
+              <c:f>Sheet2!$R$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1145,7 +1196,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$2:$L$3</c:f>
+              <c:f>Sheet2!$M$2:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1160,7 +1211,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$2:$M$3</c:f>
+              <c:f>Sheet2!$N$2:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1210,7 +1261,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$4:$L$5</c:f>
+              <c:f>Sheet2!$M$4:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1225,7 +1276,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$4:$M$5</c:f>
+              <c:f>Sheet2!$N$4:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1275,7 +1326,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$6:$L$7</c:f>
+              <c:f>Sheet2!$M$6:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1290,7 +1341,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$6:$M$7</c:f>
+              <c:f>Sheet2!$N$6:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1340,7 +1391,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$8:$L$9</c:f>
+              <c:f>Sheet2!$M$8:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1355,7 +1406,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$8:$M$9</c:f>
+              <c:f>Sheet2!$N$8:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1405,7 +1456,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$10:$L$11</c:f>
+              <c:f>Sheet2!$M$10:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1420,7 +1471,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$10:$M$11</c:f>
+              <c:f>Sheet2!$N$10:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1470,7 +1521,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$12:$L$17</c:f>
+              <c:f>Sheet2!$M$12:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1497,7 +1548,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$12:$M$17</c:f>
+              <c:f>Sheet2!$N$12:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1561,7 +1612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$18:$L$19</c:f>
+              <c:f>Sheet2!$M$18:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1576,7 +1627,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$18:$M$19</c:f>
+              <c:f>Sheet2!$N$18:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1626,7 +1677,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$20</c:f>
+              <c:f>Sheet2!$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1638,7 +1689,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$20</c:f>
+              <c:f>Sheet2!$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1685,7 +1736,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$21:$L$22</c:f>
+              <c:f>Sheet2!$M$21:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1700,7 +1751,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$21:$M$22</c:f>
+              <c:f>Sheet2!$N$21:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2661,13 +2712,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -2995,997 +3046,1048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA01B019-54A7-4908-B253-C74D9FCE7584}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="O4" sqref="O4:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>27.02</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>27.03</v>
+      </c>
+      <c r="C2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>49</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>-1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1.1890000000000001</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="1">
-        <v>54</v>
       </c>
       <c r="J2" s="1">
         <v>54</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>54</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-2.12579908283</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1.02380582627178</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>27.02</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>-1.5552551999858</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <v>2.1727095650618899</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>27.02</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>27.03</v>
+      </c>
+      <c r="C3" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>111</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
       <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>5.0430000000000001</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>97</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>100</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-2.8387780721624001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.9371183162491601</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>27.32</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>-2.0502400000000001</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>1.3653770000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>27.32</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43.01</v>
+      </c>
+      <c r="C4" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>206</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>-3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1.8240000000000001</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>55</v>
       </c>
       <c r="J4" s="1">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1">
+        <v>55</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-2.5236585623780599</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.95246806647336502</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>-1.9812000000000001</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>0.96643699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>27.32</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43.01</v>
+      </c>
+      <c r="C5" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>258</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>15.936</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>97</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>100</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-3.6740630433054302</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.1162438412599598</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>45.02</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>-2.7782552791849802</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>1.52500324054644</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>43.2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>468</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>2.105</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I6" s="1">
-        <v>54</v>
       </c>
       <c r="J6" s="1">
         <v>54</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="1">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6">
         <v>-2.3798771905764</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.97765340420066205</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>-2.9711233917401598</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>1.7254121072003299</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
         <v>43.2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>536</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
       <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
         <v>5.117</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>95</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>98</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-2.1079437129313199</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.69453925950359</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>-2.79937822350221</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>1.5731574143513001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45.02</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45.04</v>
+      </c>
+      <c r="C8" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>674</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>-1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>6.4429999999999996</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>95</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>98</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8">
+      <c r="L8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <v>-2.87454699017283</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.3770985667510001</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>-2.4550280271283298</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>1.4218992637546499</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45.02</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45.04</v>
+      </c>
+      <c r="C9" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>677</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>-1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>6.4429999999999996</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>95</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>98</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9">
+      <c r="L9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9">
         <v>-2.6346238701578901</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1.72102539700081</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>-2.60932771669667</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>1.04373765695206</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>835</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>10.638999999999999</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>97</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>100</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-3.62672797414392</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2.1444830414964202</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>-2.08364734621389</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>0.30253438422978701</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>842</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
       <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
         <v>10.638999999999999</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>97</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>100</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-3.0075266943560299</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.74802408303221</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>929</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
       <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.31</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I12" s="1">
-        <v>55</v>
       </c>
       <c r="J12" s="1">
         <v>55</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="1">
+        <v>55</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>-1.97796082986885</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.76728839282887296</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>931</v>
       </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>0.31</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I13" s="1">
-        <v>55</v>
       </c>
       <c r="J13" s="1">
         <v>55</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="1">
+        <v>55</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>-2.0065484295250502</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.99960780774434199</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>958</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>5.117</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>95</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>98</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-2.0941070851402999</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1.93753359867581</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>996</v>
       </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>23.992999999999999</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>102</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>103</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-2.3761766311739501</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.4769823366947601</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>998</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
       <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <v>23.992999999999999</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>102</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>103</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-2.22503219544648</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.3255224346543499</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>1005</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>23.992999999999999</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>102</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>103</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-2.8845608914068399</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.80050065109434</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>1087</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>26.486999999999998</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>56</v>
+      <c r="I18" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>56</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="1">
+        <v>56</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-2.8086539019725101</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2.2796507838523299</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>1095</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>26.486999999999998</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I19" s="1">
-        <v>56</v>
       </c>
       <c r="J19" s="1">
         <v>56</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="1">
+        <v>56</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-3.2771187406764901</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1.67734102603604</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>1292</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
       <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
         <v>4.7389999999999999</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>102</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>103</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-2.7262172688924902</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1.6116418670308701</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>1349</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>3</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>-2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>3.456</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I21" s="1">
-        <v>54</v>
       </c>
       <c r="J21" s="1">
         <v>54</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21">
+      <c r="K21" s="1">
+        <v>54</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>-1.864845900238</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1.1355500975809401</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>1369</v>
       </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
       <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
         <v>10.440999999999899</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I22" s="1">
-        <v>56</v>
       </c>
       <c r="J22" s="1">
         <v>56</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="1">
+        <v>56</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-2.5935413511197201</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1.6696418866282501</v>
       </c>
     </row>
@@ -3999,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C2836E-6789-4C64-8641-1637F9CF194A}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Datasets/3.5.21_emi_interpolation_seqs.xlsx
+++ b/Datasets/3.5.21_emi_interpolation_seqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makow\Documents\GitHub\UniRep\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1FC374-45B9-4154-9DD5-C8BAA960A769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42182012-43F8-491E-BAD9-10E20033A921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC3618BE-4FCD-4A35-9C98-6B93618C9CAA}"/>
   </bookViews>
@@ -3049,7 +3049,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O22"/>
+      <selection activeCell="A8" activeCellId="1" sqref="A4:A5 A8:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
